--- a/OrderList.xlsx
+++ b/OrderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengyingjie/develop/workspace/vscode/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C7CAF-D507-7D42-BF1F-96BD5F6A85DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7DBED-718B-B547-8775-88C1144E773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="27840" windowHeight="16140" xr2:uid="{57EE6945-4D1E-9D4C-9E36-F145FA4FBDC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{57EE6945-4D1E-9D4C-9E36-F145FA4FBDC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
